--- a/4_Mixed_Forecasts/1_Tables/Error_Statistics_Simple_Mixed_Models.xlsx
+++ b/4_Mixed_Forecasts/1_Tables/Error_Statistics_Simple_Mixed_Models.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02458820482611912</v>
+        <v>-0.08343332852268287</v>
       </c>
       <c r="C2">
-        <v>0.3766467348305488</v>
+        <v>0.2276087606115918</v>
       </c>
       <c r="D2">
-        <v>0.3986471647194397</v>
+        <v>0.08273643786598961</v>
       </c>
       <c r="E2">
-        <v>0.6313851160103789</v>
+        <v>0.2876394233515107</v>
       </c>
       <c r="F2">
-        <v>0.09404993766940679</v>
+        <v>0.06006953017233075</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.1554861884789966</v>
+        <v>-0.07650533591609261</v>
       </c>
       <c r="C3">
-        <v>0.6047248784562893</v>
+        <v>0.2496604832070936</v>
       </c>
       <c r="D3">
-        <v>0.9198522386560666</v>
+        <v>0.09152595977496505</v>
       </c>
       <c r="E3">
-        <v>0.9590892756443826</v>
+        <v>0.3025325763863539</v>
       </c>
       <c r="F3">
-        <v>0.1410812440363779</v>
+        <v>0.06387222861430945</v>
       </c>
       <c r="G3">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.00863423648946369</v>
+        <v>-0.126395414308652</v>
       </c>
       <c r="C4">
-        <v>1.081231980802479</v>
+        <v>0.3014333265446221</v>
       </c>
       <c r="D4">
-        <v>8.112271609790723</v>
+        <v>0.1564314459343321</v>
       </c>
       <c r="E4">
-        <v>2.848204980297367</v>
+        <v>0.3955141538988612</v>
       </c>
       <c r="F4">
-        <v>0.4245833790579227</v>
+        <v>0.08178241899090313</v>
       </c>
       <c r="G4">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.09003719665255783</v>
+        <v>-0.07996933221938775</v>
       </c>
       <c r="C5">
-        <v>0.4266666516805283</v>
+        <v>0.2147519892694937</v>
       </c>
       <c r="D5">
-        <v>0.4752218449798512</v>
+        <v>0.0649744043265079</v>
       </c>
       <c r="E5">
-        <v>0.6893633620811678</v>
+        <v>0.254900773491388</v>
       </c>
       <c r="F5">
-        <v>0.1018839370393586</v>
+        <v>0.05281563180892435</v>
       </c>
       <c r="G5">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01661122065779141</v>
+        <v>-0.1049143714156674</v>
       </c>
       <c r="C6">
-        <v>0.6521868127367103</v>
+        <v>0.2299523683858045</v>
       </c>
       <c r="D6">
-        <v>2.374491539402943</v>
+        <v>0.0944954094530339</v>
       </c>
       <c r="E6">
-        <v>1.540938525510652</v>
+        <v>0.3074010563629115</v>
       </c>
       <c r="F6">
-        <v>0.2296962054904115</v>
+        <v>0.06305265529074708</v>
       </c>
       <c r="G6">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.08206021248423016</v>
+        <v>-0.1014503751123723</v>
       </c>
       <c r="C7">
-        <v>0.7895154799631258</v>
+        <v>0.2340950556680925</v>
       </c>
       <c r="D7">
-        <v>3.076814714554941</v>
+        <v>0.09073056349745118</v>
       </c>
       <c r="E7">
-        <v>1.754085150314813</v>
+        <v>0.3012151448673376</v>
       </c>
       <c r="F7">
-        <v>0.2611972790432542</v>
+        <v>0.06189021958543866</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.05332420865517463</v>
+        <v>-0.09244185181752758</v>
       </c>
       <c r="C8">
-        <v>0.5252512157709571</v>
+        <v>0.212635985751665</v>
       </c>
       <c r="D8">
-        <v>1.065044889774283</v>
+        <v>0.07142287205047154</v>
       </c>
       <c r="E8">
-        <v>1.032010120965043</v>
+        <v>0.2672505791396373</v>
       </c>
       <c r="F8">
-        <v>0.1536374823006405</v>
+        <v>0.05471892511606922</v>
       </c>
       <c r="G8">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
